--- a/sources/Chuvash_data.xlsx
+++ b/sources/Chuvash_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="770">
   <si>
     <t>language_no</t>
   </si>
@@ -2154,15 +2154,9 @@
     <t>Тот же глагол, что 25</t>
   </si>
   <si>
-    <t>NOMNONCORE</t>
-  </si>
-  <si>
     <t>XY</t>
   </si>
   <si>
-    <t>OBJ_NOMNONCORE</t>
-  </si>
-  <si>
     <t>Трансимперсонал, букв. "Эту вещь компас говорят"</t>
   </si>
   <si>
@@ -2353,6 +2347,12 @@
   </si>
   <si>
     <t>CAUS (букв. "каузирует нравиться", где "нравиться" к тому же тот же глагол, что "соглашаться"), а соглашаться -- реципрок от прийти</t>
+  </si>
+  <si>
+    <t>NOM.NONCORE</t>
+  </si>
+  <si>
+    <t>OBJ_NOM.NONCORE</t>
   </si>
 </sst>
 </file>
@@ -2435,7 +2435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
@@ -2459,7 +2459,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2742,8 +2741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="E107" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2865,15 +2864,15 @@
       <c r="L2" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>659</v>
-      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
@@ -2912,15 +2911,15 @@
       <c r="L3" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>662</v>
-      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
+      <c r="S3" s="5" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
@@ -2993,9 +2992,11 @@
         <v>541</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K5" s="5" t="s">
         <v>542</v>
       </c>
@@ -3047,15 +3048,15 @@
       <c r="L6" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>666</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="S6" s="5" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -3094,15 +3095,15 @@
       <c r="L7" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>668</v>
-      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="5" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -3130,24 +3131,26 @@
         <v>546</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J8" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K8" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>669</v>
-      </c>
+      <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="5"/>
+      <c r="S8" s="5" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -3175,9 +3178,11 @@
         <v>547</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K9" s="5" t="s">
         <v>542</v>
       </c>
@@ -3218,9 +3223,11 @@
         <v>548</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K10" s="5" t="s">
         <v>542</v>
       </c>
@@ -3263,20 +3270,22 @@
       <c r="I11" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K11" s="5" t="s">
         <v>549</v>
       </c>
       <c r="L11" s="5"/>
-      <c r="M11" s="5" t="s">
-        <v>670</v>
-      </c>
+      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="5"/>
+      <c r="S11" s="5" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
@@ -3315,15 +3324,15 @@
       <c r="L12" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>671</v>
-      </c>
+      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="5"/>
+      <c r="S12" s="5" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
@@ -3351,9 +3360,11 @@
         <v>551</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J13" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K13" s="5" t="s">
         <v>542</v>
       </c>
@@ -3394,24 +3405,26 @@
         <v>552</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K14" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>672</v>
-      </c>
+      <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="9"/>
+      <c r="S14" s="5" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -3450,15 +3463,15 @@
       <c r="L15" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>673</v>
-      </c>
+      <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="9"/>
+      <c r="S15" s="5" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -3486,24 +3499,26 @@
         <v>554</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K16" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>674</v>
-      </c>
+      <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="5" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -3531,24 +3546,26 @@
         <v>555</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K17" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>675</v>
-      </c>
+      <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="5"/>
+      <c r="S17" s="5" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="18" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
@@ -3576,24 +3593,26 @@
         <v>556</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J18" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K18" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>676</v>
-      </c>
+      <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="5"/>
+      <c r="S18" s="5" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
@@ -3621,24 +3640,26 @@
         <v>557</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J19" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K19" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>677</v>
-      </c>
+      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="5"/>
+      <c r="S19" s="5" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
@@ -3666,24 +3687,26 @@
         <v>558</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J20" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K20" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M20" s="5" t="s">
-        <v>678</v>
-      </c>
+      <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="9"/>
+      <c r="S20" s="5" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
@@ -3711,9 +3734,11 @@
         <v>559</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K21" s="5" t="s">
         <v>542</v>
       </c>
@@ -3754,24 +3779,26 @@
         <v>543</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J22" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K22" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>679</v>
-      </c>
+      <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="9"/>
+      <c r="S22" s="5" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
@@ -3799,9 +3826,11 @@
         <v>560</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J23" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K23" s="5" t="s">
         <v>542</v>
       </c>
@@ -3853,15 +3882,15 @@
       <c r="L24" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>680</v>
-      </c>
+      <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="9"/>
+      <c r="S24" s="5" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
@@ -3900,15 +3929,15 @@
       <c r="L25" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M25" s="5" t="s">
-        <v>681</v>
-      </c>
+      <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="5"/>
+      <c r="S25" s="5" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
@@ -3947,15 +3976,15 @@
       <c r="L26" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="M26" s="5" t="s">
-        <v>684</v>
-      </c>
+      <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="5"/>
+      <c r="S26" s="5" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
@@ -3983,9 +4012,11 @@
         <v>564</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K27" s="5" t="s">
         <v>542</v>
       </c>
@@ -4026,9 +4057,11 @@
         <v>565</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K28" s="5" t="s">
         <v>542</v>
       </c>
@@ -4069,9 +4102,11 @@
         <v>566</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J29" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K29" s="5" t="s">
         <v>542</v>
       </c>
@@ -4123,15 +4158,15 @@
       <c r="L30" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="M30" s="5" t="s">
-        <v>685</v>
-      </c>
+      <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="9"/>
+      <c r="S30" s="5" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
@@ -4170,15 +4205,15 @@
       <c r="L31" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="M31" s="5" t="s">
-        <v>686</v>
-      </c>
+      <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="5"/>
+      <c r="S31" s="5" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
@@ -4206,9 +4241,11 @@
         <v>569</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J32" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K32" s="5" t="s">
         <v>542</v>
       </c>
@@ -4260,15 +4297,15 @@
       <c r="L33" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M33" s="5" t="s">
-        <v>687</v>
-      </c>
+      <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="5"/>
+      <c r="S33" s="5" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
@@ -4296,9 +4333,11 @@
         <v>571</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J34" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K34" s="5" t="s">
         <v>542</v>
       </c>
@@ -4395,15 +4434,15 @@
       <c r="L36" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="M36" s="5" t="s">
-        <v>690</v>
-      </c>
+      <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="5"/>
+      <c r="S36" s="5" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
@@ -4431,9 +4470,11 @@
         <v>574</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J37" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K37" s="5" t="s">
         <v>542</v>
       </c>
@@ -4485,15 +4526,15 @@
       <c r="L38" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>691</v>
-      </c>
+      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="5"/>
+      <c r="S38" s="5" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
@@ -4532,15 +4573,15 @@
       <c r="L39" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="M39" s="5" t="s">
-        <v>692</v>
-      </c>
+      <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="5"/>
+      <c r="S39" s="5" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
@@ -4568,9 +4609,11 @@
         <v>577</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J40" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K40" s="5" t="s">
         <v>542</v>
       </c>
@@ -4611,9 +4654,11 @@
         <v>578</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J41" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K41" s="5" t="s">
         <v>542</v>
       </c>
@@ -4654,9 +4699,11 @@
         <v>579</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J42" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K42" s="5" t="s">
         <v>542</v>
       </c>
@@ -4708,15 +4755,15 @@
       <c r="L43" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="M43" s="5" t="s">
-        <v>695</v>
-      </c>
+      <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="5"/>
+      <c r="S43" s="5" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
@@ -4744,24 +4791,26 @@
         <v>557</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J44" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K44" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M44" s="5" t="s">
-        <v>696</v>
-      </c>
+      <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="5"/>
+      <c r="S44" s="5" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
@@ -4789,24 +4838,26 @@
         <v>555</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J45" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K45" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M45" s="5" t="s">
-        <v>697</v>
-      </c>
+      <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
-      <c r="S45" s="5"/>
+      <c r="S45" s="5" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="46" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
@@ -4845,15 +4896,15 @@
       <c r="L46" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="M46" s="5" t="s">
-        <v>700</v>
-      </c>
+      <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="5"/>
+      <c r="S46" s="5" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
@@ -4881,24 +4932,26 @@
         <v>582</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J47" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K47" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>701</v>
-      </c>
+      <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="5"/>
+      <c r="S47" s="5" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
@@ -4982,15 +5035,15 @@
       <c r="L49" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="M49" s="5" t="s">
-        <v>702</v>
-      </c>
+      <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
+      <c r="S49" s="5" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
@@ -5018,9 +5071,11 @@
         <v>585</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J50" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K50" s="5" t="s">
         <v>542</v>
       </c>
@@ -5061,9 +5116,11 @@
         <v>586</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J51" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K51" s="5" t="s">
         <v>542</v>
       </c>
@@ -5107,23 +5164,23 @@
         <v>544</v>
       </c>
       <c r="J52" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="K52" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="K52" s="5" t="s">
-        <v>704</v>
-      </c>
       <c r="L52" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>706</v>
-      </c>
+        <v>769</v>
+      </c>
+      <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
+      <c r="S52" s="5" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
@@ -5151,24 +5208,26 @@
         <v>588</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J53" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K53" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M53" s="5" t="s">
-        <v>707</v>
-      </c>
+      <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="5"/>
+      <c r="S53" s="5" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="54" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
@@ -5196,9 +5255,11 @@
         <v>589</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J54" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K54" s="5" t="s">
         <v>542</v>
       </c>
@@ -5284,9 +5345,11 @@
         <v>591</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J56" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K56" s="5" t="s">
         <v>542</v>
       </c>
@@ -5338,15 +5401,15 @@
       <c r="L57" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="M57" s="5" t="s">
-        <v>708</v>
-      </c>
+      <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="5"/>
+      <c r="S57" s="5" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
@@ -5374,24 +5437,26 @@
         <v>593</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J58" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K58" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L58" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M58" s="5" t="s">
-        <v>709</v>
-      </c>
+      <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="5"/>
+      <c r="S58" s="5" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
@@ -5430,15 +5495,15 @@
       <c r="L59" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="M59" s="5" t="s">
-        <v>710</v>
-      </c>
+      <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="5"/>
+      <c r="S59" s="5" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
@@ -5477,15 +5542,15 @@
       <c r="L60" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="M60" s="5" t="s">
-        <v>711</v>
-      </c>
+      <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="5"/>
+      <c r="S60" s="5" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
@@ -5513,24 +5578,26 @@
         <v>596</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J61" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K61" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L61" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M61" s="5" t="s">
-        <v>712</v>
-      </c>
+      <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="5"/>
+      <c r="S61" s="5" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="62" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
@@ -5569,15 +5636,15 @@
       <c r="L62" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="M62" s="5" t="s">
-        <v>713</v>
-      </c>
+      <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="5"/>
+      <c r="S62" s="5" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="63" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
@@ -5605,24 +5672,26 @@
         <v>598</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J63" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K63" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M63" s="5" t="s">
-        <v>714</v>
-      </c>
+      <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
-      <c r="S63" s="5"/>
+      <c r="S63" s="5" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
@@ -5650,9 +5719,11 @@
         <v>599</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K64" s="5" t="s">
         <v>542</v>
       </c>
@@ -5704,15 +5775,15 @@
       <c r="L65" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="M65" s="5" t="s">
-        <v>715</v>
-      </c>
+      <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
+      <c r="S65" s="5" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
@@ -5751,15 +5822,15 @@
       <c r="L66" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="M66" s="5" t="s">
-        <v>716</v>
-      </c>
+      <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="5"/>
+      <c r="S66" s="5" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
@@ -5787,9 +5858,11 @@
         <v>601</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J67" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K67" s="5" t="s">
         <v>542</v>
       </c>
@@ -5832,20 +5905,22 @@
       <c r="I68" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="J68" s="5"/>
+      <c r="J68" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K68" s="5" t="s">
         <v>549</v>
       </c>
       <c r="L68" s="5"/>
-      <c r="M68" s="5" t="s">
-        <v>717</v>
-      </c>
+      <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
+      <c r="S68" s="5" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
@@ -5876,23 +5951,23 @@
         <v>539</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="M69" s="5" t="s">
-        <v>720</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
-      <c r="S69" s="5"/>
+      <c r="S69" s="5" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="70" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
@@ -5920,24 +5995,26 @@
         <v>603</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K70" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L70" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M70" s="5" t="s">
-        <v>721</v>
-      </c>
+      <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
-      <c r="S70" s="5"/>
+      <c r="S70" s="5" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="71" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
@@ -5965,9 +6042,11 @@
         <v>604</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J71" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K71" s="5" t="s">
         <v>542</v>
       </c>
@@ -6008,9 +6087,11 @@
         <v>605</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J72" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K72" s="5" t="s">
         <v>542</v>
       </c>
@@ -6051,9 +6132,11 @@
         <v>606</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K73" s="5" t="s">
         <v>542</v>
       </c>
@@ -6094,24 +6177,26 @@
         <v>607</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J74" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K74" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L74" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M74" s="5" t="s">
-        <v>722</v>
-      </c>
+      <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="5"/>
+      <c r="S74" s="5" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
@@ -6150,15 +6235,15 @@
       <c r="L75" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="M75" s="5" t="s">
-        <v>723</v>
-      </c>
+      <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
-      <c r="S75" s="5"/>
+      <c r="S75" s="5" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="76" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
@@ -6186,24 +6271,26 @@
         <v>609</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J76" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K76" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L76" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M76" s="5" t="s">
-        <v>724</v>
-      </c>
+      <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
-      <c r="S76" s="5"/>
+      <c r="S76" s="5" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="77" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
@@ -6231,9 +6318,11 @@
         <v>610</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J77" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K77" s="5" t="s">
         <v>542</v>
       </c>
@@ -6274,9 +6363,11 @@
         <v>611</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J78" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K78" s="5" t="s">
         <v>542</v>
       </c>
@@ -6317,24 +6408,26 @@
         <v>612</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J79" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K79" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L79" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M79" s="5" t="s">
-        <v>725</v>
-      </c>
+      <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
-      <c r="S79" s="5"/>
+      <c r="S79" s="5" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="80" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
@@ -6362,24 +6455,26 @@
         <v>613</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J80" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K80" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L80" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M80" s="5" t="s">
-        <v>726</v>
-      </c>
+      <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="5"/>
+      <c r="S80" s="5" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="81" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
@@ -6418,15 +6513,15 @@
       <c r="L81" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M81" s="5" t="s">
-        <v>725</v>
-      </c>
+      <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="5"/>
+      <c r="S81" s="5" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
@@ -6457,23 +6552,23 @@
         <v>539</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="M82" s="5" t="s">
-        <v>729</v>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="5"/>
+      <c r="S82" s="5" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
@@ -6501,24 +6596,26 @@
         <v>616</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J83" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K83" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L83" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M83" s="5" t="s">
-        <v>730</v>
-      </c>
+      <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="5"/>
+      <c r="S83" s="5" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
@@ -6549,23 +6646,23 @@
         <v>539</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="K84" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="M84" s="5" t="s">
-        <v>733</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="5"/>
+      <c r="S84" s="5" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
@@ -6604,15 +6701,15 @@
       <c r="L85" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M85" s="5" t="s">
-        <v>734</v>
-      </c>
+      <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="5"/>
+      <c r="S85" s="5" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
@@ -6640,9 +6737,11 @@
         <v>619</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J86" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K86" s="5" t="s">
         <v>542</v>
       </c>
@@ -6683,9 +6782,11 @@
         <v>620</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J87" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K87" s="5" t="s">
         <v>542</v>
       </c>
@@ -6737,15 +6838,15 @@
       <c r="L88" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M88" s="5" t="s">
-        <v>735</v>
-      </c>
+      <c r="M88" s="5"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
-      <c r="S88" s="5"/>
+      <c r="S88" s="5" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="89" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
@@ -6776,23 +6877,23 @@
         <v>539</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="K89" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="M89" s="5" t="s">
-        <v>736</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="5"/>
+      <c r="S89" s="5" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
@@ -6823,23 +6924,23 @@
         <v>539</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="K90" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="M90" s="5" t="s">
-        <v>739</v>
-      </c>
+        <v>736</v>
+      </c>
+      <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="5"/>
+      <c r="S90" s="5" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
@@ -6878,15 +6979,15 @@
       <c r="L91" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="M91" s="5" t="s">
-        <v>685</v>
-      </c>
+      <c r="M91" s="5"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
-      <c r="S91" s="5"/>
+      <c r="S91" s="5" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="92" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
@@ -6914,24 +7015,26 @@
         <v>624</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J92" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K92" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L92" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M92" s="5" t="s">
-        <v>740</v>
-      </c>
+      <c r="M92" s="5"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="5"/>
+      <c r="S92" s="5" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
@@ -6959,24 +7062,26 @@
         <v>624</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J93" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K93" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L93" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M93" s="5" t="s">
-        <v>741</v>
-      </c>
+      <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="5"/>
+      <c r="S93" s="5" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
@@ -7004,9 +7109,11 @@
         <v>625</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J94" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K94" s="5" t="s">
         <v>542</v>
       </c>
@@ -7058,15 +7165,15 @@
       <c r="L95" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M95" s="5" t="s">
-        <v>742</v>
-      </c>
+      <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="5"/>
+      <c r="S95" s="5" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
@@ -7097,23 +7204,23 @@
         <v>539</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="K96" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="M96" s="5" t="s">
-        <v>745</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="M96" s="5"/>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="5"/>
+      <c r="S96" s="5" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="97" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
@@ -7141,24 +7248,26 @@
         <v>628</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J97" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K97" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M97" s="5" t="s">
-        <v>746</v>
-      </c>
+      <c r="M97" s="5"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="5"/>
+      <c r="S97" s="5" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="98" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
@@ -7197,15 +7306,15 @@
       <c r="L98" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="M98" s="5" t="s">
-        <v>747</v>
-      </c>
+      <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="5"/>
+      <c r="S98" s="5" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
@@ -7244,15 +7353,15 @@
       <c r="L99" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M99" s="5" t="s">
-        <v>748</v>
-      </c>
+      <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="5"/>
+      <c r="S99" s="5" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
@@ -7291,15 +7400,15 @@
       <c r="L100" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M100" s="5" t="s">
-        <v>749</v>
-      </c>
+      <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="5"/>
+      <c r="S100" s="5" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
@@ -7327,24 +7436,26 @@
         <v>631</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J101" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K101" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L101" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M101" s="5" t="s">
-        <v>750</v>
-      </c>
+      <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="5"/>
+      <c r="S101" s="5" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
@@ -7372,24 +7483,26 @@
         <v>632</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J102" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K102" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L102" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M102" s="5" t="s">
-        <v>751</v>
-      </c>
+      <c r="M102" s="5"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="5"/>
+      <c r="S102" s="5" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="103" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
@@ -7417,24 +7530,26 @@
         <v>633</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J103" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K103" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L103" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M103" s="5" t="s">
-        <v>752</v>
-      </c>
+      <c r="M103" s="5"/>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
-      <c r="S103" s="5"/>
+      <c r="S103" s="5" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="104" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
@@ -7462,9 +7577,11 @@
         <v>634</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J104" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K104" s="5" t="s">
         <v>542</v>
       </c>
@@ -7508,23 +7625,23 @@
         <v>539</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="K105" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="M105" s="5" t="s">
-        <v>755</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="M105" s="5"/>
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
-      <c r="S105" s="5"/>
+      <c r="S105" s="5" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="106" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
@@ -7552,9 +7669,11 @@
         <v>636</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J106" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K106" s="5" t="s">
         <v>542</v>
       </c>
@@ -7595,24 +7714,26 @@
         <v>613</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J107" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K107" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L107" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M107" s="5" t="s">
-        <v>756</v>
-      </c>
+      <c r="M107" s="5"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
-      <c r="S107" s="5"/>
+      <c r="S107" s="5" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="108" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
@@ -7640,24 +7761,26 @@
         <v>637</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J108" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K108" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L108" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M108" s="5" t="s">
-        <v>757</v>
-      </c>
+      <c r="M108" s="5"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
-      <c r="S108" s="5"/>
+      <c r="S108" s="5" t="s">
+        <v>755</v>
+      </c>
     </row>
     <row r="109" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
@@ -7685,24 +7808,26 @@
         <v>638</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J109" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K109" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L109" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M109" s="5" t="s">
-        <v>758</v>
-      </c>
+      <c r="M109" s="5"/>
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
-      <c r="S109" s="5"/>
+      <c r="S109" s="5" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="110" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
@@ -7730,9 +7855,11 @@
         <v>639</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J110" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K110" s="5" t="s">
         <v>542</v>
       </c>
@@ -7745,7 +7872,7 @@
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
+      <c r="S110" s="5"/>
     </row>
     <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
@@ -7773,9 +7900,11 @@
         <v>640</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J111" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K111" s="5" t="s">
         <v>542</v>
       </c>
@@ -7788,7 +7917,7 @@
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
+      <c r="S111" s="5"/>
     </row>
     <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
@@ -7833,7 +7962,7 @@
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
+      <c r="S112" s="5"/>
     </row>
     <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
@@ -7872,15 +8001,15 @@
       <c r="L113" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M113" s="5" t="s">
-        <v>759</v>
-      </c>
+      <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
+      <c r="S113" s="5" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
@@ -7908,24 +8037,26 @@
         <v>643</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J114" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K114" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L114" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M114" s="5" t="s">
-        <v>760</v>
-      </c>
+      <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
+      <c r="S114" s="5" t="s">
+        <v>758</v>
+      </c>
     </row>
     <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
@@ -7953,24 +8084,26 @@
         <v>546</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J115" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K115" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L115" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M115" s="5" t="s">
-        <v>761</v>
-      </c>
+      <c r="M115" s="5"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
+      <c r="S115" s="5" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
@@ -7998,9 +8131,11 @@
         <v>644</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J116" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K116" s="5" t="s">
         <v>542</v>
       </c>
@@ -8013,7 +8148,7 @@
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
+      <c r="S116" s="5"/>
     </row>
     <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
@@ -8041,9 +8176,11 @@
         <v>645</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J117" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K117" s="5" t="s">
         <v>542</v>
       </c>
@@ -8056,7 +8193,7 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
+      <c r="S117" s="5"/>
     </row>
     <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
@@ -8087,23 +8224,23 @@
         <v>539</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="M118" s="5" t="s">
-        <v>685</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
+      <c r="S118" s="5" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
@@ -8131,9 +8268,11 @@
         <v>647</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J119" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K119" s="5" t="s">
         <v>542</v>
       </c>
@@ -8174,24 +8313,26 @@
         <v>648</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J120" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K120" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L120" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M120" s="5" t="s">
-        <v>762</v>
-      </c>
+      <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="5"/>
+      <c r="S120" s="5" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
@@ -8264,24 +8405,26 @@
         <v>650</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J122" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K122" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L122" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M122" s="5" t="s">
-        <v>763</v>
-      </c>
+      <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="5"/>
+      <c r="S122" s="5" t="s">
+        <v>761</v>
+      </c>
     </row>
     <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
@@ -8312,23 +8455,23 @@
         <v>539</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="K123" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="M123" s="5" t="s">
-        <v>764</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
+      <c r="S123" s="5" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
@@ -8359,23 +8502,23 @@
         <v>539</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="K124" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="M124" s="5" t="s">
-        <v>765</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="5"/>
+      <c r="S124" s="5" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
@@ -8403,24 +8546,26 @@
         <v>652</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J125" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K125" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L125" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M125" s="5" t="s">
-        <v>766</v>
-      </c>
+      <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="5"/>
+      <c r="S125" s="5" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
@@ -8459,15 +8604,15 @@
       <c r="L126" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="M126" s="5" t="s">
-        <v>767</v>
-      </c>
+      <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="5"/>
+      <c r="S126" s="5" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
@@ -8495,24 +8640,26 @@
         <v>654</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J127" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K127" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L127" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M127" s="5" t="s">
-        <v>768</v>
-      </c>
+      <c r="M127" s="5"/>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="5"/>
+      <c r="S127" s="5" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
@@ -8543,13 +8690,13 @@
         <v>539</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="K128" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
@@ -8588,23 +8735,23 @@
         <v>539</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="K129" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="M129" s="5" t="s">
-        <v>685</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="M129" s="5"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="5"/>
+      <c r="S129" s="5" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="130" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
@@ -8632,24 +8779,26 @@
         <v>656</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J130" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="K130" s="5" t="s">
         <v>542</v>
       </c>
       <c r="L130" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M130" s="5" t="s">
-        <v>769</v>
-      </c>
+      <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="5"/>
+      <c r="S130" s="5" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
